--- a/biology/Médecine/Hôpital_Français_Saint_Louis/Hôpital_Français_Saint_Louis.xlsx
+++ b/biology/Médecine/Hôpital_Français_Saint_Louis/Hôpital_Français_Saint_Louis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Fran%C3%A7ais_Saint_Louis</t>
+          <t>Hôpital_Français_Saint_Louis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hôpital français Saint-Louis est une organisation à but non lucratif fondée en 1851 dans les locaux du patriarcat latin de Jérusalem. En 1882, le comte Marie Paul Amedee De Piellat décide de construire le bâtiment qui accueille encore aujourd'hui l'hôpital Saint Louis.
-L’hôpital est un établissement chrétien catholique géré par la congrégation des sœurs de saint Joseph. Il a été le premier lieu de Jérusalem à offrir des soins palliatifs dans les années 1950[1].
+L’hôpital est un établissement chrétien catholique géré par la congrégation des sœurs de saint Joseph. Il a été le premier lieu de Jérusalem à offrir des soins palliatifs dans les années 1950.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Fran%C3%A7ais_Saint_Louis</t>
+          <t>Hôpital_Français_Saint_Louis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'activité de l'hôpital débute dans les locaux du Patriarche de Jérusalem en 1851. En 1882 l'établissement ouvre ces portes comme un hôpital général contenant un salle d'opération, une maternité… En 1920 l'hôpital compte environ 100 lits, il est le lieu d'accueil de beaucoup d'habitants de la Vieille ville de Jérusalem.
 Après la guerre israélo-arabe de 1948-1949, l'hôpital se retrouve au bord d'un no man's land entre Israël et la Jordanie et doit se réinventer pour faire face à la construction d'un important complexe de santé israélien. C'est pour cette raison que l'hôpital, en écoutant les besoins de la population de Jérusalem, ouvre le premier département de soin palliatif à Jérusalem en 1950.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Fran%C3%A7ais_Saint_Louis</t>
+          <t>Hôpital_Français_Saint_Louis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans un climat conflictuel, l’hôpital se présente comme un médiateur en accueillant juifs, musulmans et chrétiens sans distinction ni division.
 Sa localisation, à la porte de la vieille ville, entre la population « Juive » et la population « Arabe » de la ville présente un vrai signe de réconciliation et de paix pour la population de Jérusalem.
